--- a/M06/Files/8003庫存調整.xlsx
+++ b/M06/Files/8003庫存調整.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <x:si>
     <x:t>調整日期</x:t>
   </x:si>
@@ -34,6 +34,30 @@
     <x:t>調整後成本</x:t>
   </x:si>
   <x:si>
+    <x:t>4717202230321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>紅茶梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9310042238981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>舒酸定牙膏-護理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713327151510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>六腳花生(鹽香)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000000000031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>瑞興黑紫米900</x:t>
+  </x:si>
+  <x:si>
     <x:t>0002009118021</x:t>
   </x:si>
   <x:si>
@@ -46,16 +70,40 @@
     <x:t>瑞興米14公斤</x:t>
   </x:si>
   <x:si>
-    <x:t>20200060010090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>愛玉子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710010010017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>紅鷹牌海底雞</x:t>
+    <x:t>20200070010150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>田園龍眼蜜80G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200070200560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高山烏龍茶(4兩)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200080770010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>二坪枝仔冰10元</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200080770015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>二坪枝仔冰15元</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200080770025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>二坪枝仔冰25元</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710015115007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>關山米乖乖奶油椰子</x:t>
   </x:si>
   <x:si>
     <x:t>4710015116158</x:t>
@@ -64,10 +112,244 @@
     <x:t>關山米乖乖五香</x:t>
   </x:si>
   <x:si>
-    <x:t>4710015115007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>關山米乖乖奶油椰子</x:t>
+    <x:t>4712602682145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>飛魚餅原味</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200070230550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杉林溪-高山春茶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200070240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>益生菌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200070250420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牛雜爐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712425010309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>雪柔廚房紙巾</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713108530619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>地瓜酥片</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200070011050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香妃荔枝蜜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200070020180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>龍眼蜜130公克-黃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712031002323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>古早味黑糖</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958660671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>百香果吸凍(單罐)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710312010753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鱷魚蚊香(30入)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>熟梅藏香(盒裝)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蜂蜜梅醋-中瓶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710114800163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>舒潔平板300張</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710476280696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>紅藜紅豆粥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710746111378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西螺農會-蔭油膏</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710746111385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西螺清健蔭清油</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958040190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>酸菜白肉鍋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台灣梅200g-甜菊梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711588858735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>女兒紅20年</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711603114488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>江右2-麻油豆腐乳</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712038100053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鴻凱冰糖</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712070722039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>霧峰香米12kg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712120781566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>可樂果米穀酥-蒜味</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712382604221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香茅抹草芙蓉三合一</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712425010712</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春風抽取衛生紙10小包串</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>梅精糖180g(盒)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>梅精糖150g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水里農會-梅餅系列</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630728</x:t>
+  </x:si>
+  <x:si>
+    <x:t>麻吉梅粉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>梅子醬油(小)250ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水里鄉農會-鈕扣菇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>烏梅子醬禮盒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牧木ㄦ黑木耳露</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>隨手包-Q梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>隨手包-甜菊梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台灣梅500g-原味Q梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台灣梅500g-茶梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710043552065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>得意一天葵花油</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710046011101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>工研大白酢600</x:t>
   </x:si>
   <x:si>
     <x:t>4710060006060</x:t>
@@ -76,58 +358,244 @@
     <x:t>南僑水晶肥皂液體食器</x:t>
   </x:si>
   <x:si>
+    <x:t>4710084212041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>噴效螞蟻殺蟲劑600c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710088460196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>四季醬油非基改釀造醬油1.6k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710088460363</x:t>
+  </x:si>
+  <x:si>
+    <x:t>統一四季醬油870ml非基改</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710094032011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>國聯白蘭漂白水</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710094045301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>白蘭強效4.25洗衣粉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710167111018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青葉麵筋120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710168708309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黑人牙膏250g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710186184208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>白鴿防霉洗衣精補充(香蜂草)</x:t>
+  </x:si>
+  <x:si>
     <x:t>4710186187711</x:t>
   </x:si>
   <x:si>
     <x:t>白鴿抗菌洗衣精補充(小蒼蘭)</x:t>
   </x:si>
   <x:si>
+    <x:t>4710201117044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美琪藥皂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710311010112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台糖特砂1公斤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710311010211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台糖貳砂1公斤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710423869981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>萬丹紅豆湯單罐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710434811214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>果汁牛乳</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710434811221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>咖啡牛乳</x:t>
+  </x:si>
+  <x:si>
     <x:t>4710434811276</x:t>
   </x:si>
   <x:si>
     <x:t>低脂牛乳</x:t>
   </x:si>
   <x:si>
-    <x:t>4710450010080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>花蓮富麗好米</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710746111378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西螺農會-蔭油膏</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>台灣梅200g-甜菊梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631442</x:t>
-  </x:si>
-  <x:si>
-    <x:t>隨手包-酵素梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>隨手包-Q梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631466</x:t>
-  </x:si>
-  <x:si>
-    <x:t>隨手包-茶梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631473</x:t>
-  </x:si>
-  <x:si>
-    <x:t>隨手包-紫蘇梅</x:t>
+    <x:t>4710444300234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>南投縣農會山薑洗髮精</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710444300241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山薑-沐浴乳</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710447001107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>下營農會蔭鼓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710452210051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>羅東農會養生豆奶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710452210082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>羅東農會養生豆奶-黑豆</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713381120071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>去刺虱目魚肚XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713648201277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>彰化區漁會干貝海鮮醬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713648203530</x:t>
+  </x:si>
+  <x:si>
+    <x:t>無骨雞腿排(十三香口味)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4714127971612</x:t>
+  </x:si>
+  <x:si>
+    <x:t>竹炭水-小</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4714127971605</x:t>
+  </x:si>
+  <x:si>
+    <x:t>禾風竹炭水(大)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4715243010254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>阿里山農會山葵醬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4716296007888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牛樟芝茶600ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4717202230017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>化核果子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4717202230048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甘草橄欖</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4717202230178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>碳燻烏梅李</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713327148787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香蕉乾</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713327269222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>埔農-美人腿泡麵(肉燥)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713327275537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>埔農-美人腿泡麵(素食)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711049230070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>南亞保鮮膜200m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711379002033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>醜小鴨漂白水-大</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711379003016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>醜小鴨浴廁劑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711459000652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>原色金針</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711588210106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台酒紹興酒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台灣梅500g-紫蘇梅</x:t>
   </x:si>
   <x:si>
     <x:t>4710958631633</x:t>
@@ -136,124 +604,34 @@
     <x:t>水里紅茶包</x:t>
   </x:si>
   <x:si>
-    <x:t>4710958632036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水里真梅-化應子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958632203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>一口Q梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711137979683</x:t>
-  </x:si>
-  <x:si>
-    <x:t>魚池台茶18號-紅玉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711588855260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>紅標純米料理米酒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711970300149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>三豐豆干</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4712070722015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>霧峰香米-5kg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4712867251131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>田媽媽花捲饅頭-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713327102031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>綠生活土雞兒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713327269123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>埔農-美人腿泡麵(牛肉)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713327275537</x:t>
-  </x:si>
-  <x:si>
-    <x:t>埔農-美人腿泡麵(素食)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4714127971292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>竹炭水-小</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4714127971605</x:t>
-  </x:si>
-  <x:si>
-    <x:t>禾風竹炭水(大)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713327151510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>六腳花生(鹽香)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4712867251087</x:t>
-  </x:si>
-  <x:si>
-    <x:t>田媽媽-芝麻包子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710312010753</x:t>
-  </x:si>
-  <x:si>
-    <x:t>鱷魚蚊香(30入)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710423869875</x:t>
-  </x:si>
-  <x:si>
-    <x:t>黑米紅豆粥(禮盒)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710874251564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>碳烤魷魚片</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710874251595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>原味魷魚絲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200080900030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>絲瓜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>牧木ㄦ黑木耳露</x:t>
+    <x:t>4710958631640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水禮熟梅藏香禮盒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水里真梅-烏梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水里真梅-冰梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>一口酵素梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710973350014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>俏皮鴨-中</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -618,7 +996,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F38"/>
+  <x:dimension ref="A1:F101"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -626,7 +1004,7 @@
   <x:cols>
     <x:col min="1" max="1" width="11.060625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.770625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.800625" style="0" customWidth="1"/>
     <x:col min="4" max="6" width="13.360625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -652,7 +1030,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
         <x:v>6</x:v>
@@ -661,18 +1039,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
         <x:v>8</x:v>
@@ -681,18 +1059,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>540</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
         <x:v>10</x:v>
@@ -701,18 +1079,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
         <x:v>12</x:v>
@@ -721,18 +1099,18 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
         <x:v>14</x:v>
@@ -741,18 +1119,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>29.1667</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
         <x:v>16</x:v>
@@ -761,18 +1139,18 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>29.1667</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
         <x:v>18</x:v>
@@ -781,18 +1159,18 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
         <x:v>20</x:v>
@@ -801,18 +1179,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>382.46</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
         <x:v>22</x:v>
@@ -821,18 +1199,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>16.6667</x:v>
+        <x:v>6.5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
         <x:v>24</x:v>
@@ -841,18 +1219,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>290</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
         <x:v>26</x:v>
@@ -861,18 +1239,18 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>62.502</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
         <x:v>28</x:v>
@@ -881,18 +1259,18 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
         <x:v>30</x:v>
@@ -901,18 +1279,18 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>29.17</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
         <x:v>32</x:v>
@@ -921,18 +1299,18 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>48.58</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
         <x:v>34</x:v>
@@ -941,18 +1319,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>48.58</x:v>
+        <x:v>382.32</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
         <x:v>36</x:v>
@@ -961,18 +1339,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>48.58</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
         <x:v>38</x:v>
@@ -981,18 +1359,18 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
         <x:v>40</x:v>
@@ -1001,18 +1379,18 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>86.67</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
         <x:v>42</x:v>
@@ -1021,18 +1399,18 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
         <x:v>44</x:v>
@@ -1041,18 +1419,18 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>735</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
         <x:v>46</x:v>
@@ -1061,18 +1439,18 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
         <x:v>48</x:v>
@@ -1081,18 +1459,18 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
         <x:v>50</x:v>
@@ -1101,18 +1479,18 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>290</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
         <x:v>52</x:v>
@@ -1121,18 +1499,18 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>45.6</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
         <x:v>54</x:v>
@@ -1141,18 +1519,18 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
         <x:v>56</x:v>
@@ -1161,18 +1539,18 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>156</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>27.5</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
         <x:v>58</x:v>
@@ -1181,18 +1559,18 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>27.5</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
         <x:v>60</x:v>
@@ -1201,18 +1579,18 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
         <x:v>62</x:v>
@@ -1221,18 +1599,18 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>5.1667</x:v>
+        <x:v>62.5</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
         <x:v>64</x:v>
@@ -1241,18 +1619,18 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
         <x:v>66</x:v>
@@ -1261,18 +1639,18 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
         <x:v>68</x:v>
@@ -1281,18 +1659,18 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
         <x:v>70</x:v>
@@ -1301,18 +1679,18 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>310</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
         <x:v>72</x:v>
@@ -1321,18 +1699,18 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
         <x:v>74</x:v>
@@ -1344,15 +1722,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
         <x:v>76</x:v>
@@ -1361,18 +1739,18 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>660</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="1">
-        <x:v>45169</x:v>
+        <x:v>45290</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
         <x:v>78</x:v>
@@ -1381,13 +1759,1273 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>267</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="n">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="n">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="n">
+        <x:v>112.81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="n">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="n">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="n">
+        <x:v>580</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="n">
+        <x:v>451.54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="n">
+        <x:v>27.98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="n">
+        <x:v>49.53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="A52" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="A53" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="A54" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="A55" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="n">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="A56" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="n">
+        <x:v>70.11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="A57" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="n">
+        <x:v>91.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="A58" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="n">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="n">
+        <x:v>51.67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="A59" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="A60" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="A61" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6">
+      <x:c r="A62" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="n">
+        <x:v>58.81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6">
+      <x:c r="A63" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6">
+      <x:c r="A64" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="n">
+        <x:v>93.18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6">
+      <x:c r="A65" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6">
+      <x:c r="A66" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6">
+      <x:c r="A67" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="A68" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="n">
+        <x:v>23.33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="A69" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="n">
+        <x:v>15.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="A70" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="n">
+        <x:v>15.53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="A71" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6">
+      <x:c r="A72" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="n">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6">
+      <x:c r="A73" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6">
+      <x:c r="A74" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6">
+      <x:c r="A75" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6">
+      <x:c r="A76" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="n">
+        <x:v>12.92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B77" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B78" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="n">
+        <x:v>2.92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="n">
+        <x:v>5.17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B83" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="A85" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B85" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="A86" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B86" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="A87" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B87" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="n">
+        <x:v>63.97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="A88" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B88" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="n">
+        <x:v>28.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="A89" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B89" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="A90" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B90" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="n">
+        <x:v>51.24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="A91" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B91" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="A92" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B92" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="A93" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B93" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="A94" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B94" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="A95" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B95" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="n">
+        <x:v>149.15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="A96" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B96" s="2" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="F38" s="0" t="n">
-        <x:v>29.1667</x:v>
+      <x:c r="C96" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="A97" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B97" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="A98" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B98" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="A99" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B99" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6">
+      <x:c r="A100" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B100" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:6">
+      <x:c r="A101" s="1">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c r="B101" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
